--- a/example/info/02 screened foot info.xlsx
+++ b/example/info/02 screened foot info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,10 +506,15 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>foot correction</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>reject</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>comment</t>
         </is>
@@ -552,13 +557,13 @@
         <v>3.175</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0021430312117828</v>
+        <v>0.002486644345176593</v>
       </c>
       <c r="K2" t="n">
         <v>158.406047302999</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0008238521881653</v>
+        <v>0.001167465321559093</v>
       </c>
       <c r="M2" t="n">
         <v>74.37073472538241</v>
@@ -566,12 +571,15 @@
       <c r="N2" t="n">
         <v>63702.73562050127</v>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>-0.000343613133393793</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -610,13 +618,13 @@
         <v>3.175</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0031632217586024</v>
+        <v>0.003652802999034743</v>
       </c>
       <c r="K3" t="n">
         <v>198.512982112349</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0008592908995195</v>
+        <v>0.001348872139951843</v>
       </c>
       <c r="M3" t="n">
         <v>73.3049745800319</v>
@@ -624,12 +632,15 @@
       <c r="N3" t="n">
         <v>54345.38412413871</v>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>-0.0004895812404323431</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -668,13 +679,13 @@
         <v>3.175</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0012405455890814</v>
+        <v>0.001771310291409529</v>
       </c>
       <c r="K4" t="n">
         <v>115.590404178709</v>
       </c>
       <c r="L4" t="n">
-        <v>2.7478216041874e-05</v>
+        <v>0.000558242918370003</v>
       </c>
       <c r="M4" t="n">
         <v>36.4292608004567</v>
@@ -682,12 +693,15 @@
       <c r="N4" t="n">
         <v>65257.0047943025</v>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>-0.000530764702328129</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -726,13 +740,13 @@
         <v>3.175</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0036687573069259</v>
+        <v>0.003234063939585186</v>
       </c>
       <c r="K5" t="n">
         <v>192.947593520996</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0010250119481079</v>
+        <v>0.0005903185807671863</v>
       </c>
       <c r="M5" t="n">
         <v>35.2190159803605</v>
@@ -740,12 +754,15 @@
       <c r="N5" t="n">
         <v>59661.03241166723</v>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>0.0004346933673407137</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -784,13 +801,13 @@
         <v>3.175</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0034578054274945</v>
+        <v>0.00381451361088899</v>
       </c>
       <c r="K6" t="n">
         <v>212.461144507981</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0001372276497661</v>
+        <v>0.0002194805336283904</v>
       </c>
       <c r="M6" t="n">
         <v>12.2246477870196</v>
@@ -798,12 +815,15 @@
       <c r="N6" t="n">
         <v>55698.09579430651</v>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>-0.0003567081833944904</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -842,13 +862,13 @@
         <v>3.175</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0013308344028587</v>
+        <v>0.001422674189591884</v>
       </c>
       <c r="K7" t="n">
         <v>100.116005949159</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004647292114464</v>
+        <v>0.0005565689981795843</v>
       </c>
       <c r="M7" t="n">
         <v>39.1667084006418</v>
@@ -856,12 +876,15 @@
       <c r="N7" t="n">
         <v>70371.70329060289</v>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>-9.183978673318427e-05</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -900,13 +923,13 @@
         <v>3.175</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0019856080988389</v>
+        <v>0.00215681772142884</v>
       </c>
       <c r="K8" t="n">
         <v>133.484577967839</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007248730770316</v>
+        <v>0.0008960826996215404</v>
       </c>
       <c r="M8" t="n">
         <v>55.4581964877506</v>
@@ -914,12 +937,15 @@
       <c r="N8" t="n">
         <v>61889.59625174473</v>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>-0.0001712096225899404</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -958,26 +984,29 @@
         <v>3.175</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0022306410620245</v>
+        <v>0.002644136638289646</v>
       </c>
       <c r="K9" t="n">
         <v>153.024416048495</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001349454552405703</v>
+        <v>0.001762950128670803</v>
       </c>
       <c r="M9" t="n">
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>1.530242504001463</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
+        <v>60173.88540302405</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.0004134955762651457</v>
       </c>
       <c r="P9" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>LPL @ 100</t>
         </is>
@@ -1020,13 +1049,13 @@
         <v>3.175</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0038156755099284</v>
+        <v>0.003383981439116137</v>
       </c>
       <c r="K10" t="n">
         <v>183.56403158262</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0009636610746946</v>
+        <v>0.0005319670038823366</v>
       </c>
       <c r="M10" t="n">
         <v>28.8565435888071</v>
@@ -1034,12 +1063,15 @@
       <c r="N10" t="n">
         <v>54244.98771203815</v>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>0.0004316940708122634</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1078,13 +1110,13 @@
         <v>3.175</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0031624118084904</v>
+        <v>0.003408700883743779</v>
       </c>
       <c r="K11" t="n">
         <v>186.003104711952</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0015054054397589</v>
+        <v>0.001751694515012279</v>
       </c>
       <c r="M11" t="n">
         <v>95.5849836672474</v>
@@ -1092,12 +1124,15 @@
       <c r="N11" t="n">
         <v>54567.15360359359</v>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>-0.0002462890752533788</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1136,26 +1171,29 @@
         <v>3.175</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0028824921341948</v>
+        <v>0.003768694015879434</v>
       </c>
       <c r="K12" t="n">
         <v>197.823708886257</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001124588041580684</v>
+        <v>0.002010789923265284</v>
       </c>
       <c r="M12" t="n">
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>1.978230510884988</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
+        <v>55647.92146355663</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.0008862018816846342</v>
       </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>LPL @ 100</t>
         </is>
@@ -1198,13 +1236,13 @@
         <v>3.175</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0030560513265569</v>
+        <v>0.002831397119518019</v>
       </c>
       <c r="K13" t="n">
         <v>164.610840241371</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0025944849826447</v>
+        <v>0.002369830775605819</v>
       </c>
       <c r="M13" t="n">
         <v>137.77644701028</v>
@@ -1212,12 +1250,15 @@
       <c r="N13" t="n">
         <v>58137.67313198094</v>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>0.0002246542070388807</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1256,13 +1297,13 @@
         <v>3.175</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0030280954502827</v>
+        <v>0.003337599360594599</v>
       </c>
       <c r="K14" t="n">
         <v>191.93280380166</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0007834577679747</v>
+        <v>0.001092961678286598</v>
       </c>
       <c r="M14" t="n">
         <v>62.8521211497185</v>
@@ -1270,12 +1311,15 @@
       <c r="N14" t="n">
         <v>57506.24417888996</v>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>-0.0003095039103118984</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1314,13 +1358,13 @@
         <v>3.175</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0029354443939829</v>
+        <v>0.003052171734517982</v>
       </c>
       <c r="K15" t="n">
         <v>179.013564063243</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0006824260647774</v>
+        <v>0.0007991534053124824</v>
       </c>
       <c r="M15" t="n">
         <v>46.8713138583788</v>
@@ -1328,12 +1372,15 @@
       <c r="N15" t="n">
         <v>58651.20957602798</v>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>-0.0001167273405350824</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1372,13 +1419,13 @@
         <v>3.175</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0006707484800995</v>
+        <v>0.0007660653984972492</v>
       </c>
       <c r="K16" t="n">
         <v>56.3769290357358</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003282574831909</v>
+        <v>0.0004235744015886492</v>
       </c>
       <c r="M16" t="n">
         <v>31.172043570381</v>
@@ -1386,12 +1433,15 @@
       <c r="N16" t="n">
         <v>73592.84095891487</v>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>-9.531691839774926e-05</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1430,13 +1480,13 @@
         <v>3.175</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0025738738481878</v>
+        <v>0.002407070069901566</v>
       </c>
       <c r="K17" t="n">
         <v>144.247777516109</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0008066529172635</v>
+        <v>0.0006398491389772658</v>
       </c>
       <c r="M17" t="n">
         <v>38.3440504691419</v>
@@ -1444,12 +1494,15 @@
       <c r="N17" t="n">
         <v>59926.70480174591</v>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>0.0001668037782862342</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1488,13 +1541,13 @@
         <v>3.175</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0041106618582026</v>
+        <v>0.004564315429236116</v>
       </c>
       <c r="K18" t="n">
         <v>227.601528876447</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0011219008159882</v>
+        <v>0.001575554387021716</v>
       </c>
       <c r="M18" t="n">
         <v>78.5656891759014</v>
@@ -1502,12 +1555,15 @@
       <c r="N18" t="n">
         <v>49865.42503582808</v>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>-0.0004536535710335157</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1546,13 +1602,13 @@
         <v>3.175</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0023649733367396</v>
+        <v>0.001810033408109702</v>
       </c>
       <c r="K19" t="n">
         <v>102.235369819713</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0011735003724328</v>
+        <v>0.0006185604438029022</v>
       </c>
       <c r="M19" t="n">
         <v>34.9378942094105</v>
@@ -1560,12 +1616,15 @@
       <c r="N19" t="n">
         <v>56482.58720621179</v>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>0.0005549399286298978</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1604,13 +1663,13 @@
         <v>3.175</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0033726568852873</v>
+        <v>0.002946729411013637</v>
       </c>
       <c r="K20" t="n">
         <v>203.724300085789</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0016394255162135</v>
+        <v>0.001213498041939837</v>
       </c>
       <c r="M20" t="n">
         <v>83.8960775718557</v>
@@ -1618,12 +1677,15 @@
       <c r="N20" t="n">
         <v>69135.73378144363</v>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>0.0004259274742736629</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1662,13 +1724,13 @@
         <v>3.175</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0031797904613142</v>
+        <v>0.003099591938447006</v>
       </c>
       <c r="K21" t="n">
         <v>184.962353082935</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001786999124442</v>
+        <v>9.850138957700637e-05</v>
       </c>
       <c r="M21" t="n">
         <v>5.87788623789952</v>
@@ -1676,12 +1738,15 @@
       <c r="N21" t="n">
         <v>59673.13012680211</v>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr"/>
+      <c r="O21" t="n">
+        <v>8.019852286719363e-05</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1720,13 +1785,13 @@
         <v>3.175</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0024472642485076</v>
+        <v>0.002538236159027514</v>
       </c>
       <c r="K22" t="n">
         <v>147.650044884146</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0007785491347406</v>
+        <v>0.0008695210452605134</v>
       </c>
       <c r="M22" t="n">
         <v>50.5803295346691</v>
@@ -1734,12 +1799,15 @@
       <c r="N22" t="n">
         <v>58170.33389860614</v>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr"/>
+      <c r="O22" t="n">
+        <v>-9.097191051991339e-05</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1778,13 +1846,13 @@
         <v>3.175</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0025581688826486</v>
+        <v>0.002986865689476005</v>
       </c>
       <c r="K23" t="n">
         <v>176.979439785403</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0008672210843821</v>
+        <v>0.001295917891209504</v>
       </c>
       <c r="M23" t="n">
         <v>76.786453171376</v>
@@ -1792,12 +1860,15 @@
       <c r="N23" t="n">
         <v>59252.56043784516</v>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr"/>
+      <c r="O23" t="n">
+        <v>-0.0004286968068274045</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1836,13 +1907,13 @@
         <v>3.175</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0026181667841312</v>
+        <v>0.002913928760891397</v>
       </c>
       <c r="K24" t="n">
         <v>164.528068453978</v>
       </c>
       <c r="L24" t="n">
-        <v>-4.15095955106565e-05</v>
+        <v>0.0002542523812495404</v>
       </c>
       <c r="M24" t="n">
         <v>14.3557569931856</v>
@@ -1850,12 +1921,15 @@
       <c r="N24" t="n">
         <v>56462.62553228906</v>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr"/>
+      <c r="O24" t="n">
+        <v>-0.0002957619767601969</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1894,13 +1968,13 @@
         <v>3.175</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0028913880631288</v>
+        <v>0.002799291831076681</v>
       </c>
       <c r="K25" t="n">
         <v>166.148394269309</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000101444910045</v>
+        <v>9.348677992880878e-06</v>
       </c>
       <c r="M25" t="n">
         <v>0.554878851791746</v>
@@ -1908,12 +1982,15 @@
       <c r="N25" t="n">
         <v>59353.72383286097</v>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>9.209623205211912e-05</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1952,13 +2029,13 @@
         <v>3.175</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0024196761628747</v>
+        <v>0.002342094147758236</v>
       </c>
       <c r="K26" t="n">
         <v>143.264709458966</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0001432003069386</v>
+        <v>6.561829182213629e-05</v>
       </c>
       <c r="M26" t="n">
         <v>4.01383758295543</v>
@@ -1966,12 +2043,15 @@
       <c r="N26" t="n">
         <v>61169.49209582098</v>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>7.758201511646372e-05</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2010,13 +2090,13 @@
         <v>3.175</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0018960100167003</v>
+        <v>0.001877897583312018</v>
       </c>
       <c r="K27" t="n">
         <v>114.945593796641</v>
       </c>
       <c r="L27" t="n">
-        <v>6.01328365101964e-05</v>
+        <v>4.202040312191429e-05</v>
       </c>
       <c r="M27" t="n">
         <v>2.57205730032622</v>
@@ -2024,12 +2104,15 @@
       <c r="N27" t="n">
         <v>61209.7245441433</v>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr"/>
+      <c r="O27" t="n">
+        <v>1.811243338828211e-05</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2068,13 +2151,13 @@
         <v>3.175</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0038502341851608</v>
+        <v>0.003608067645741652</v>
       </c>
       <c r="K28" t="n">
         <v>211.28186215837</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0006415447149677</v>
+        <v>0.0003993781755485524</v>
       </c>
       <c r="M28" t="n">
         <v>23.3868577089734</v>
@@ -2082,12 +2165,15 @@
       <c r="N28" t="n">
         <v>58558.17653744132</v>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr"/>
+      <c r="O28" t="n">
+        <v>0.0002421665394191476</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2126,13 +2212,13 @@
         <v>3.175</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0012133305043666</v>
+        <v>0.001648224949389607</v>
       </c>
       <c r="K29" t="n">
         <v>100.820663952542</v>
       </c>
       <c r="L29" t="n">
-        <v>-1.42019837143363e-05</v>
+        <v>0.000420692461308671</v>
       </c>
       <c r="M29" t="n">
         <v>25.7334372257117</v>
@@ -2140,12 +2226,15 @@
       <c r="N29" t="n">
         <v>61169.23784576812</v>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr"/>
+      <c r="O29" t="n">
+        <v>-0.0004348944450230073</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2184,13 +2273,13 @@
         <v>3.175</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0016458153709904</v>
+        <v>0.001742321762701669</v>
       </c>
       <c r="K30" t="n">
         <v>117.019256302744</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0005784369041462</v>
+        <v>0.0006749432958574685</v>
       </c>
       <c r="M30" t="n">
         <v>45.3311002700754</v>
@@ -2198,12 +2287,15 @@
       <c r="N30" t="n">
         <v>67162.82767500551</v>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr"/>
+      <c r="O30" t="n">
+        <v>-9.650639171126857e-05</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2242,13 +2334,13 @@
         <v>3.175</v>
       </c>
       <c r="J31" t="n">
-        <v>0.002719677779803</v>
+        <v>0.003770420637788741</v>
       </c>
       <c r="K31" t="n">
         <v>185.923507771131</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0001510644963774</v>
+        <v>0.001201807354363141</v>
       </c>
       <c r="M31" t="n">
         <v>59.2624167046206</v>
@@ -2256,12 +2348,15 @@
       <c r="N31" t="n">
         <v>49311.07842656266</v>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr"/>
+      <c r="O31" t="n">
+        <v>-0.001050742857985741</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2300,13 +2395,13 @@
         <v>3.175</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0005871015629028</v>
+        <v>0.000542026924884292</v>
       </c>
       <c r="K32" t="n">
         <v>46.1272742639521</v>
       </c>
       <c r="L32" t="n">
-        <v>8.762224361805309e-05</v>
+        <v>4.254760559954508e-05</v>
       </c>
       <c r="M32" t="n">
         <v>3.62086269641244</v>
@@ -2314,12 +2409,15 @@
       <c r="N32" t="n">
         <v>85101.44449705892</v>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr"/>
+      <c r="O32" t="n">
+        <v>4.507463801850802e-05</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2358,13 +2456,13 @@
         <v>3.175</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0029281608179439</v>
+        <v>0.003575680588424118</v>
       </c>
       <c r="K33" t="n">
         <v>193.34158337017</v>
       </c>
       <c r="L33" t="n">
-        <v>0.001116674786109</v>
+        <v>0.001764194556589218</v>
       </c>
       <c r="M33" t="n">
         <v>95.3922366690816</v>
@@ -2372,12 +2470,15 @@
       <c r="N33" t="n">
         <v>54071.26799750867</v>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr"/>
+      <c r="O33" t="n">
+        <v>-0.0006475197704802183</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2416,13 +2517,13 @@
         <v>3.175</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0005814067947547</v>
+        <v>0.0005830672385619013</v>
       </c>
       <c r="K34" t="n">
         <v>44.360833762824</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0001705546555184</v>
+        <v>0.0001722150993256013</v>
       </c>
       <c r="M34" t="n">
         <v>13.1024432301733</v>
@@ -2430,12 +2531,15 @@
       <c r="N34" t="n">
         <v>76081.84927734443</v>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr"/>
+      <c r="O34" t="n">
+        <v>-1.660443807201283e-06</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2474,13 +2578,13 @@
         <v>3.175</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0006912896239247</v>
+        <v>0.0007326478168975564</v>
       </c>
       <c r="K35" t="n">
         <v>48.1833180137349</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0004534191495139</v>
+        <v>0.0004947773424867565</v>
       </c>
       <c r="M35" t="n">
         <v>32.5395278457009</v>
@@ -2488,12 +2592,15 @@
       <c r="N35" t="n">
         <v>65766.00230349448</v>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr"/>
+      <c r="O35" t="n">
+        <v>-4.135819297285646e-05</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2532,13 +2639,13 @@
         <v>3.175</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0014631282682139</v>
+        <v>0.002594532464993202</v>
       </c>
       <c r="K36" t="n">
         <v>144.025333226662</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.000401527900887</v>
+        <v>0.0007298762958923019</v>
       </c>
       <c r="M36" t="n">
         <v>40.5162310159823</v>
@@ -2546,12 +2653,15 @@
       <c r="N36" t="n">
         <v>55511.09310441385</v>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr"/>
+      <c r="O36" t="n">
+        <v>-0.001131404196779302</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2590,13 +2700,13 @@
         <v>3.175</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0039773369917128</v>
+        <v>0.004883037301830246</v>
       </c>
       <c r="K37" t="n">
         <v>218.94767432926</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0013282499595122</v>
+        <v>0.002233950269629646</v>
       </c>
       <c r="M37" t="n">
         <v>100.166799037006</v>
@@ -2604,12 +2714,15 @@
       <c r="N37" t="n">
         <v>44838.41936804264</v>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr"/>
+      <c r="O37" t="n">
+        <v>-0.0009057003101174462</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2648,13 +2761,13 @@
         <v>3.175</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0023381259215176</v>
+        <v>0.003201193006741849</v>
       </c>
       <c r="K38" t="n">
         <v>174.581165598501</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0002656678046243</v>
+        <v>0.0005973992805999486</v>
       </c>
       <c r="M38" t="n">
         <v>32.5799358286726</v>
@@ -2662,12 +2775,15 @@
       <c r="N38" t="n">
         <v>54536.28232687803</v>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr"/>
+      <c r="O38" t="n">
+        <v>-0.0008630670852242486</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2706,13 +2822,13 @@
         <v>3.175</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0027342685913477</v>
+        <v>0.003535944426428289</v>
       </c>
       <c r="K39" t="n">
         <v>176.304083740973</v>
       </c>
       <c r="L39" t="n">
-        <v>0.000802505159437</v>
+        <v>0.001604180994517588</v>
       </c>
       <c r="M39" t="n">
         <v>79.9853239432246</v>
@@ -2720,12 +2836,15 @@
       <c r="N39" t="n">
         <v>49860.53582269121</v>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr"/>
+      <c r="O39" t="n">
+        <v>-0.0008016758350805884</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2764,13 +2883,13 @@
         <v>3.175</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0021871174190301</v>
+        <v>0.002197614221644402</v>
       </c>
       <c r="K40" t="n">
         <v>126.327924989666</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0003557996376856</v>
+        <v>0.0003662964402999018</v>
       </c>
       <c r="M40" t="n">
         <v>21.056229422998</v>
@@ -2778,12 +2897,15 @@
       <c r="N40" t="n">
         <v>57484.122438532</v>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr"/>
+      <c r="O40" t="n">
+        <v>-1.049680261430187e-05</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2822,13 +2944,13 @@
         <v>3.175</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0023172225108585</v>
+        <v>0.002440386540067831</v>
       </c>
       <c r="K41" t="n">
         <v>127.142187354785</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0011497599344323</v>
+        <v>0.001272923963641631</v>
       </c>
       <c r="M41" t="n">
         <v>66.3183206498186</v>
@@ -2836,12 +2958,15 @@
       <c r="N41" t="n">
         <v>52099.20037964602</v>
       </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr"/>
+      <c r="O41" t="n">
+        <v>-0.0001231640292093314</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2880,13 +3005,13 @@
         <v>3.175</v>
       </c>
       <c r="J42" t="n">
-        <v>0.002043807001187</v>
+        <v>0.002919619240649738</v>
       </c>
       <c r="K42" t="n">
         <v>137.914967289347</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0004040128946626</v>
+        <v>0.0004717993448001379</v>
       </c>
       <c r="M42" t="n">
         <v>22.2865332229986</v>
@@ -2894,12 +3019,15 @@
       <c r="N42" t="n">
         <v>47237.31278694243</v>
       </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr"/>
+      <c r="O42" t="n">
+        <v>-0.000875812239462738</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2938,13 +3066,13 @@
         <v>3.175</v>
       </c>
       <c r="J43" t="n">
-        <v>4.26180075737827e-05</v>
+        <v>0.0007756972094795218</v>
       </c>
       <c r="K43" t="n">
         <v>43.69035133474</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.000247711680446</v>
+        <v>0.0004853675214597392</v>
       </c>
       <c r="M43" t="n">
         <v>27.3378288330787</v>
@@ -2952,12 +3080,15 @@
       <c r="N43" t="n">
         <v>56323.97641865361</v>
       </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr"/>
+      <c r="O43" t="n">
+        <v>-0.0007330792019057392</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2996,13 +3127,13 @@
         <v>3.175</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0033548701370235</v>
+        <v>0.004385461460634597</v>
       </c>
       <c r="K44" t="n">
         <v>190.806708666229</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0010184079948085</v>
+        <v>0.002048999318419596</v>
       </c>
       <c r="M44" t="n">
         <v>89.1497552803521</v>
@@ -3010,12 +3141,15 @@
       <c r="N44" t="n">
         <v>43508.92383366616</v>
       </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr"/>
+      <c r="O44" t="n">
+        <v>-0.001030591323611097</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3054,13 +3188,13 @@
         <v>3.175</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0014972913617768</v>
+        <v>0.002229400711533884</v>
       </c>
       <c r="K45" t="n">
         <v>106.423782753718</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0003143288916249</v>
+        <v>0.001046438241381984</v>
       </c>
       <c r="M45" t="n">
         <v>49.9532970855636</v>
@@ -3068,12 +3202,15 @@
       <c r="N45" t="n">
         <v>47736.49806565988</v>
       </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr"/>
+      <c r="O45" t="n">
+        <v>-0.0007321093497570839</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3112,13 +3249,13 @@
         <v>3.175</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0010443373566301</v>
+        <v>0.001642667931312869</v>
       </c>
       <c r="K46" t="n">
         <v>86.96884979516319</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0002863352117741</v>
+        <v>0.0008846657864568686</v>
       </c>
       <c r="M46" t="n">
         <v>46.8374431829298</v>
@@ -3126,12 +3263,15 @@
       <c r="N46" t="n">
         <v>52943.65838484174</v>
       </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr"/>
+      <c r="O46" t="n">
+        <v>-0.0005983305746827686</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3170,13 +3310,13 @@
         <v>3.175</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0015456633195706</v>
+        <v>0.002029688456395919</v>
       </c>
       <c r="K47" t="n">
         <v>98.3135045128474</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.000214739340301</v>
+        <v>0.0002692857965243188</v>
       </c>
       <c r="M47" t="n">
         <v>13.0435931132256</v>
@@ -3184,12 +3324,15 @@
       <c r="N47" t="n">
         <v>48437.73151640273</v>
       </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr"/>
+      <c r="O47" t="n">
+        <v>-0.0004840251368253188</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3228,13 +3371,13 @@
         <v>3.175</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0019787964702512</v>
+        <v>0.002063402786403701</v>
       </c>
       <c r="K48" t="n">
         <v>107.531322495733</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0003669462459159</v>
+        <v>0.0004515525620684005</v>
       </c>
       <c r="M48" t="n">
         <v>23.5320241377496</v>
@@ -3242,12 +3385,15 @@
       <c r="N48" t="n">
         <v>52113.58790648386</v>
       </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr"/>
+      <c r="O48" t="n">
+        <v>-8.460631615250054e-05</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3286,13 +3432,13 @@
         <v>3.175</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0038402199301262</v>
+        <v>0.004696947534094185</v>
       </c>
       <c r="K49" t="n">
         <v>214.622689722153</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0004674921801247</v>
+        <v>0.001324219784092684</v>
       </c>
       <c r="M49" t="n">
         <v>60.5090028752196</v>
@@ -3300,12 +3446,15 @@
       <c r="N49" t="n">
         <v>45694.07858279248</v>
       </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr"/>
+      <c r="O49" t="n">
+        <v>-0.0008567276039679844</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3344,13 +3493,13 @@
         <v>3.175</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0026026678908469</v>
+        <v>0.002872619939431664</v>
       </c>
       <c r="K50" t="n">
         <v>151.737831510864</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0002964869684148</v>
+        <v>0.0005664390169995643</v>
       </c>
       <c r="M50" t="n">
         <v>29.9205011226317</v>
@@ -3358,12 +3507,15 @@
       <c r="N50" t="n">
         <v>52822.10480683522</v>
       </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr"/>
+      <c r="O50" t="n">
+        <v>-0.0002699520485847642</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3402,13 +3554,13 @@
         <v>3.175</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0031636884288931</v>
+        <v>0.004423947936696039</v>
       </c>
       <c r="K51" t="n">
         <v>179.160245834743</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0011921761350618</v>
+        <v>0.002452435642864739</v>
       </c>
       <c r="M51" t="n">
         <v>99.3182964530266</v>
@@ -3416,12 +3568,15 @@
       <c r="N51" t="n">
         <v>40497.81968468332</v>
       </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr"/>
+      <c r="O51" t="n">
+        <v>-0.001260259507802939</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3460,13 +3615,13 @@
         <v>3.175</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0018900313668732</v>
+        <v>0.002485691494831069</v>
       </c>
       <c r="K52" t="n">
         <v>134.337541640328</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0004866780804578</v>
+        <v>0.001082338208415669</v>
       </c>
       <c r="M52" t="n">
         <v>58.4942477553271</v>
@@ -3474,12 +3629,15 @@
       <c r="N52" t="n">
         <v>54044.33410971532</v>
       </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr"/>
+      <c r="O52" t="n">
+        <v>-0.0005956601279578689</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3518,13 +3676,13 @@
         <v>3.175</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0009916351412732</v>
+        <v>0.001228066336613659</v>
       </c>
       <c r="K53" t="n">
         <v>71.2418157261492</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0001496748195769</v>
+        <v>0.0003861060149173587</v>
       </c>
       <c r="M53" t="n">
         <v>22.3985404903691</v>
@@ -3532,12 +3690,15 @@
       <c r="N53" t="n">
         <v>58011.37414335085</v>
       </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr"/>
+      <c r="O53" t="n">
+        <v>-0.0002364311953404587</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3576,26 +3737,29 @@
         <v>3.175</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0023622335493904</v>
+        <v>0.004655036302394712</v>
       </c>
       <c r="K54" t="n">
         <v>162.188065728032</v>
       </c>
       <c r="L54" t="n">
-        <v>0.000949289774882811</v>
+        <v>0.003242092527887111</v>
       </c>
       <c r="M54" t="n">
         <v>100</v>
       </c>
       <c r="N54" t="n">
-        <v>1.621872431213977</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
+        <v>44013.1212933112</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.002292802753004312</v>
       </c>
       <c r="P54" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
         <is>
           <t>LPL @ 100</t>
         </is>
@@ -3638,13 +3802,13 @@
         <v>3.175</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0027229878863634</v>
+        <v>0.002787434520705606</v>
       </c>
       <c r="K55" t="n">
         <v>152.399409973673</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0008745455678985</v>
+        <v>0.0009389922022407065</v>
       </c>
       <c r="M55" t="n">
         <v>51.3381952215828</v>
@@ -3652,12 +3816,15 @@
       <c r="N55" t="n">
         <v>54673.71837495033</v>
       </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr"/>
+      <c r="O55" t="n">
+        <v>-6.444663434220649e-05</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3696,13 +3863,13 @@
         <v>3.175</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0019954432394527</v>
+        <v>0.002531234604146474</v>
       </c>
       <c r="K56" t="n">
         <v>126.804257125663</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0004004304709806</v>
+        <v>0.0009362218356743738</v>
       </c>
       <c r="M56" t="n">
         <v>46.9007946489988</v>
@@ -3710,12 +3877,15 @@
       <c r="N56" t="n">
         <v>50095.81368631024</v>
       </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr"/>
+      <c r="O56" t="n">
+        <v>-0.0005357913646937737</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3754,13 +3924,13 @@
         <v>3.175</v>
       </c>
       <c r="J57" t="n">
-        <v>0.0023971281613097</v>
+        <v>0.002571921967269722</v>
       </c>
       <c r="K57" t="n">
         <v>149.984671993292</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0009019390234575</v>
+        <v>0.001076732829417522</v>
       </c>
       <c r="M57" t="n">
         <v>62.7909486756447</v>
@@ -3768,12 +3938,15 @@
       <c r="N57" t="n">
         <v>58316.18295655812</v>
       </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr"/>
+      <c r="O57" t="n">
+        <v>-0.0001747938059600222</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3812,13 +3985,13 @@
         <v>3.175</v>
       </c>
       <c r="J58" t="n">
-        <v>0.0023055159386087</v>
+        <v>0.003432602724840315</v>
       </c>
       <c r="K58" t="n">
         <v>151.968738810775</v>
       </c>
       <c r="L58" t="n">
-        <v>0.0003211662031008</v>
+        <v>0.001448252989332415</v>
       </c>
       <c r="M58" t="n">
         <v>64.1172888068544</v>
@@ -3826,12 +3999,15 @@
       <c r="N58" t="n">
         <v>44272.16051279124</v>
       </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr"/>
+      <c r="O58" t="n">
+        <v>-0.001127086786231615</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3870,26 +4046,29 @@
         <v>3.175</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0025365000310913</v>
+        <v>0.004615041001057621</v>
       </c>
       <c r="K59" t="n">
         <v>159.315233127494</v>
       </c>
       <c r="L59" t="n">
-        <v>0.001166670195164801</v>
+        <v>0.003245211165131101</v>
       </c>
       <c r="M59" t="n">
         <v>100</v>
       </c>
       <c r="N59" t="n">
-        <v>1.593145553028962</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
+        <v>43301.16892758039</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.002078540969966321</v>
       </c>
       <c r="P59" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
         <is>
           <t>LPL @ 100</t>
         </is>
@@ -3932,13 +4111,13 @@
         <v>3.175</v>
       </c>
       <c r="J60" t="n">
-        <v>0.0019770578086991</v>
+        <v>0.002183439006668277</v>
       </c>
       <c r="K60" t="n">
         <v>114.21692709225</v>
       </c>
       <c r="L60" t="n">
-        <v>0.0010097971759519</v>
+        <v>0.001216178373921077</v>
       </c>
       <c r="M60" t="n">
         <v>63.6189773293808</v>
@@ -3946,12 +4125,15 @@
       <c r="N60" t="n">
         <v>52310.56454676712</v>
       </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr"/>
+      <c r="O60" t="n">
+        <v>-0.0002063811979691773</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3990,13 +4172,13 @@
         <v>3.175</v>
       </c>
       <c r="J61" t="n">
-        <v>0.000581294238181</v>
+        <v>0.0009431448108916057</v>
       </c>
       <c r="K61" t="n">
         <v>51.966869050494</v>
       </c>
       <c r="L61" t="n">
-        <v>0.0001442326560836</v>
+        <v>0.0005060832287942057</v>
       </c>
       <c r="M61" t="n">
         <v>27.8849658882577</v>
@@ -4004,12 +4186,15 @@
       <c r="N61" t="n">
         <v>55099.56525272816</v>
       </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr"/>
+      <c r="O61" t="n">
+        <v>-0.0003618505727106058</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4048,26 +4233,29 @@
         <v>3.175</v>
       </c>
       <c r="J62" t="n">
-        <v>0.0029688495230802</v>
+        <v>0.003881752702090299</v>
       </c>
       <c r="K62" t="n">
         <v>157.454775694613</v>
       </c>
       <c r="L62" t="n">
-        <v>0.001070133277698502</v>
+        <v>0.001983036456708502</v>
       </c>
       <c r="M62" t="n">
         <v>75</v>
       </c>
       <c r="N62" t="n">
-        <v>2.099387379591835</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
+        <v>43426.59199086005</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-0.0009129031790100989</v>
       </c>
       <c r="P62" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
         <is>
           <t>LPL @ 75</t>
         </is>
@@ -4110,13 +4298,13 @@
         <v>3.175</v>
       </c>
       <c r="J63" t="n">
-        <v>0.0023643508025239</v>
+        <v>0.002347687751566579</v>
       </c>
       <c r="K63" t="n">
         <v>120.321861081836</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0012231358549212</v>
+        <v>0.001206472803963879</v>
       </c>
       <c r="M63" t="n">
         <v>61.8332029123926</v>
@@ -4124,12 +4312,15 @@
       <c r="N63" t="n">
         <v>51251.21984452443</v>
       </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr"/>
+      <c r="O63" t="n">
+        <v>1.666305095732092e-05</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4168,13 +4359,13 @@
         <v>3.175</v>
       </c>
       <c r="J64" t="n">
-        <v>0.0024274619103733</v>
+        <v>0.002376444629577968</v>
       </c>
       <c r="K64" t="n">
         <v>117.932091658521</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0008010589309638</v>
+        <v>0.0007500416501684681</v>
       </c>
       <c r="M64" t="n">
         <v>37.2211409996473</v>
@@ -4182,12 +4373,15 @@
       <c r="N64" t="n">
         <v>49625.43212271877</v>
       </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr"/>
+      <c r="O64" t="n">
+        <v>5.101728079533185e-05</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4226,13 +4420,13 @@
         <v>3.175</v>
       </c>
       <c r="J65" t="n">
-        <v>0.002799564711745</v>
+        <v>0.002801238875892798</v>
       </c>
       <c r="K65" t="n">
         <v>137.529404464271</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0007074580040404</v>
+        <v>0.0007091321681881983</v>
       </c>
       <c r="M65" t="n">
         <v>34.8154973917735</v>
@@ -4240,12 +4434,15 @@
       <c r="N65" t="n">
         <v>49095.9216823086</v>
       </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr"/>
+      <c r="O65" t="n">
+        <v>-1.674164147798338e-06</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4284,26 +4481,29 @@
         <v>3.175</v>
       </c>
       <c r="J66" t="n">
-        <v>0.0025058426924598</v>
+        <v>0.002836324709717948</v>
       </c>
       <c r="K66" t="n">
         <v>125.650398590921</v>
       </c>
       <c r="L66" t="n">
-        <v>0.001974797666157755</v>
+        <v>0.002305279683415855</v>
       </c>
       <c r="M66" t="n">
         <v>100</v>
       </c>
       <c r="N66" t="n">
-        <v>1.256503740888836</v>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
+        <v>48301.73962749703</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-0.000330482017258148</v>
       </c>
       <c r="P66" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
         <is>
           <t>LPL @ 100</t>
         </is>
@@ -4346,13 +4546,13 @@
         <v>3.175</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0006459635547706</v>
+        <v>0.002286106157598223</v>
       </c>
       <c r="K67" t="n">
         <v>96.78575508036739</v>
       </c>
       <c r="L67" t="n">
-        <v>-0.0005829674608728999</v>
+        <v>0.001057175141954723</v>
       </c>
       <c r="M67" t="n">
         <v>44.7571054503344</v>
@@ -4360,12 +4560,15 @@
       <c r="N67" t="n">
         <v>42336.50950927417</v>
       </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr"/>
+      <c r="O67" t="n">
+        <v>-0.001640142602827623</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4404,26 +4607,29 @@
         <v>3.175</v>
       </c>
       <c r="J68" t="n">
-        <v>0.0031558202835545</v>
+        <v>0.004985253954606032</v>
       </c>
       <c r="K68" t="n">
         <v>165.156659126179</v>
       </c>
       <c r="L68" t="n">
-        <v>0.001567051405153904</v>
+        <v>0.003396485076205404</v>
       </c>
       <c r="M68" t="n">
         <v>100</v>
       </c>
       <c r="N68" t="n">
-        <v>1.651560913867462</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
+        <v>41010.78515068252</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-0.001829433671051533</v>
       </c>
       <c r="P68" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
         <is>
           <t>LPL @ 100</t>
         </is>
@@ -4466,13 +4672,13 @@
         <v>3.175</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0034908062617733</v>
+        <v>0.004318579631240168</v>
       </c>
       <c r="K69" t="n">
         <v>188.358407583882</v>
       </c>
       <c r="L69" t="n">
-        <v>0.0001815677408716</v>
+        <v>0.001009341110338468</v>
       </c>
       <c r="M69" t="n">
         <v>44.0232438640259</v>
@@ -4480,12 +4686,15 @@
       <c r="N69" t="n">
         <v>43615.8236428747</v>
       </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr"/>
+      <c r="O69" t="n">
+        <v>-0.0008277733694668681</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4524,13 +4733,13 @@
         <v>3.175</v>
       </c>
       <c r="J70" t="n">
-        <v>0.0036492251984442</v>
+        <v>0.004512857274977415</v>
       </c>
       <c r="K70" t="n">
         <v>178.246468462332</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0011387312210549</v>
+        <v>0.002002363297588115</v>
       </c>
       <c r="M70" t="n">
         <v>79.088294760099</v>
@@ -4538,12 +4747,15 @@
       <c r="N70" t="n">
         <v>39497.47523606849</v>
       </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr"/>
+      <c r="O70" t="n">
+        <v>-0.0008636320765332151</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4582,13 +4794,13 @@
         <v>3.175</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0020042311549392</v>
+        <v>0.002394123425083844</v>
       </c>
       <c r="K71" t="n">
         <v>89.5786348354455</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0003844597143342</v>
+        <v>0.0007743519844788439</v>
       </c>
       <c r="M71" t="n">
         <v>28.9731903230109</v>
@@ -4596,12 +4808,15 @@
       <c r="N71" t="n">
         <v>37416.04709970556</v>
       </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr"/>
+      <c r="O71" t="n">
+        <v>-0.0003898922701446438</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4640,13 +4855,13 @@
         <v>3.175</v>
       </c>
       <c r="J72" t="n">
-        <v>0.001638116266368</v>
+        <v>0.002247436524562911</v>
       </c>
       <c r="K72" t="n">
         <v>94.7858175387026</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0005136779511466</v>
+        <v>0.001122998209341511</v>
       </c>
       <c r="M72" t="n">
         <v>47.3625404782615</v>
@@ -4654,12 +4869,15 @@
       <c r="N72" t="n">
         <v>42175.08103243844</v>
       </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr"/>
+      <c r="O72" t="n">
+        <v>-0.0006093202581949112</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4698,13 +4916,13 @@
         <v>3.175</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0025588255988143</v>
+        <v>0.003379981590037871</v>
       </c>
       <c r="K73" t="n">
         <v>117.984652395155</v>
       </c>
       <c r="L73" t="n">
-        <v>0.000920969806466</v>
+        <v>0.001742125797689571</v>
       </c>
       <c r="M73" t="n">
         <v>60.8121971062964</v>
@@ -4712,12 +4930,15 @@
       <c r="N73" t="n">
         <v>34906.89202062578</v>
       </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr"/>
+      <c r="O73" t="n">
+        <v>-0.0008211559912235707</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4756,13 +4977,13 @@
         <v>3.175</v>
       </c>
       <c r="J74" t="n">
-        <v>0.0015751398899118</v>
+        <v>0.002353998885612358</v>
       </c>
       <c r="K74" t="n">
         <v>89.70936921435261</v>
       </c>
       <c r="L74" t="n">
-        <v>0.0005262423136993001</v>
+        <v>0.001305101309399858</v>
       </c>
       <c r="M74" t="n">
         <v>49.7365635738737</v>
@@ -4770,12 +4991,15 @@
       <c r="N74" t="n">
         <v>38109.35075740957</v>
       </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr"/>
+      <c r="O74" t="n">
+        <v>-0.0007788589957005581</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4814,13 +5038,13 @@
         <v>3.175</v>
       </c>
       <c r="J75" t="n">
-        <v>0.0003288655510823</v>
+        <v>0.00086619561294452</v>
       </c>
       <c r="K75" t="n">
         <v>46.6700725180651</v>
       </c>
       <c r="L75" t="n">
-        <v>-0.0001090942928267</v>
+        <v>0.0004282357690355199</v>
       </c>
       <c r="M75" t="n">
         <v>23.0730727529062</v>
@@ -4828,12 +5052,15 @@
       <c r="N75" t="n">
         <v>53879.36837894645</v>
       </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr"/>
+      <c r="O75" t="n">
+        <v>-0.0005373300618622199</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4872,13 +5099,13 @@
         <v>3.175</v>
       </c>
       <c r="J76" t="n">
-        <v>0.0010519873621433</v>
+        <v>0.002126363259529328</v>
       </c>
       <c r="K76" t="n">
         <v>79.6278853066987</v>
       </c>
       <c r="L76" t="n">
-        <v>0.0004081684907155</v>
+        <v>0.001482544388101528</v>
       </c>
       <c r="M76" t="n">
         <v>55.5182064817886</v>
@@ -4886,12 +5113,15 @@
       <c r="N76" t="n">
         <v>37447.92191543245</v>
       </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr"/>
+      <c r="O76" t="n">
+        <v>-0.001074375897386028</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4930,13 +5160,13 @@
         <v>3.175</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0011414970920866</v>
+        <v>0.001798177991279841</v>
       </c>
       <c r="K77" t="n">
         <v>70.2101465114052</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0003372887905942</v>
+        <v>0.0009939696897874406</v>
       </c>
       <c r="M77" t="n">
         <v>38.8097050938778</v>
@@ -4944,12 +5174,15 @@
       <c r="N77" t="n">
         <v>39045.15951807063</v>
       </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr"/>
+      <c r="O77" t="n">
+        <v>-0.0006566808991932407</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4988,13 +5221,13 @@
         <v>3.175</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0018873649587801</v>
+        <v>0.002908448967036806</v>
       </c>
       <c r="K78" t="n">
         <v>110.081902277342</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.0005961304379504</v>
+        <v>0.0004249535703063059</v>
       </c>
       <c r="M78" t="n">
         <v>16.0840702137286</v>
@@ -5002,12 +5235,15 @@
       <c r="N78" t="n">
         <v>37849.00595642768</v>
       </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr"/>
+      <c r="O78" t="n">
+        <v>-0.001021084008256706</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5046,13 +5282,13 @@
         <v>3.175</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0012426941191744</v>
+        <v>0.001390335852471714</v>
       </c>
       <c r="K79" t="n">
         <v>60.0918208946391</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0006835270138352</v>
+        <v>0.0008311687471325139</v>
       </c>
       <c r="M79" t="n">
         <v>35.9240131779057</v>
@@ -5060,12 +5296,15 @@
       <c r="N79" t="n">
         <v>43221.08272458697</v>
       </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr"/>
+      <c r="O79" t="n">
+        <v>-0.0001476417332973139</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5104,13 +5343,13 @@
         <v>3.175</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0027373926171371</v>
+        <v>0.003356995818494748</v>
       </c>
       <c r="K80" t="n">
         <v>119.090300315133</v>
       </c>
       <c r="L80" t="n">
-        <v>-0.0002631127265759</v>
+        <v>0.0003564904747817478</v>
       </c>
       <c r="M80" t="n">
         <v>12.64659236909</v>
@@ -5118,12 +5357,15 @@
       <c r="N80" t="n">
         <v>35475.26024876975</v>
       </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr"/>
+      <c r="O80" t="n">
+        <v>-0.0006196032013576478</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5162,13 +5404,13 @@
         <v>3.175</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0024324019778128</v>
+        <v>0.002644959504997883</v>
       </c>
       <c r="K81" t="n">
         <v>115.716025680978</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0004627965160671</v>
+        <v>0.0006753540432521833</v>
       </c>
       <c r="M81" t="n">
         <v>29.5464961429663</v>
@@ -5176,12 +5418,15 @@
       <c r="N81" t="n">
         <v>43749.63981955958</v>
       </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr"/>
+      <c r="O81" t="n">
+        <v>-0.0002125575271850833</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5220,13 +5465,13 @@
         <v>3.175</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0005822215377281</v>
+        <v>0.000916007180450091</v>
       </c>
       <c r="K82" t="n">
         <v>43.099975477242</v>
       </c>
       <c r="L82" t="n">
-        <v>-4.82756956746927e-06</v>
+        <v>0.0003289580731545218</v>
       </c>
       <c r="M82" t="n">
         <v>15.4781372773018</v>
@@ -5234,12 +5479,15 @@
       <c r="N82" t="n">
         <v>47052.00613827537</v>
       </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr"/>
+      <c r="O82" t="n">
+        <v>-0.000333785642721991</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5278,13 +5526,13 @@
         <v>3.175</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0014327517010738</v>
+        <v>0.001611940297469171</v>
       </c>
       <c r="K83" t="n">
         <v>51.7861136852212</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0006416657414823</v>
+        <v>0.0008208543378776712</v>
       </c>
       <c r="M83" t="n">
         <v>26.3712347951603</v>
@@ -5292,12 +5540,15 @@
       <c r="N83" t="n">
         <v>32126.57054763632</v>
       </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr"/>
+      <c r="O83" t="n">
+        <v>-0.0001791885963953713</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5336,26 +5587,29 @@
         <v>3.175</v>
       </c>
       <c r="J84" t="n">
-        <v>0.00080048817503</v>
+        <v>0.001735194130145886</v>
       </c>
       <c r="K84" t="n">
         <v>56.7732969744529</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0001662687236652468</v>
+        <v>0.001100974678781047</v>
       </c>
       <c r="M84" t="n">
         <v>30</v>
       </c>
       <c r="N84" t="n">
-        <v>1.892427037923536</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
+        <v>42214.56298263449</v>
+      </c>
+      <c r="O84" t="n">
+        <v>-0.0009347059551158865</v>
       </c>
       <c r="P84" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
         <is>
           <t>LPL @ 30</t>
         </is>
@@ -5398,13 +5652,13 @@
         <v>3.175</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0012773467743735</v>
+        <v>0.001133706609370434</v>
       </c>
       <c r="K85" t="n">
         <v>56.9308587258361</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0001736024241044</v>
+        <v>2.996225910133389e-05</v>
       </c>
       <c r="M85" t="n">
         <v>1.50460191896753</v>
@@ -5412,12 +5666,15 @@
       <c r="N85" t="n">
         <v>50216.57124981459</v>
       </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr"/>
+      <c r="O85" t="n">
+        <v>0.0001436401650030661</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5456,13 +5713,13 @@
         <v>3.175</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0009714729283885</v>
+        <v>0.001067499811414395</v>
       </c>
       <c r="K86" t="n">
         <v>57.0351509504363</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0005275471835426</v>
+        <v>0.0006235740665684951</v>
       </c>
       <c r="M86" t="n">
         <v>33.316765619273</v>
@@ -5470,12 +5727,15 @@
       <c r="N86" t="n">
         <v>53428.72227290324</v>
       </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr"/>
+      <c r="O86" t="n">
+        <v>-9.602688302589506e-05</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5514,13 +5774,13 @@
         <v>3.175</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0021140556723788</v>
+        <v>0.001197085137900995</v>
       </c>
       <c r="K87" t="n">
         <v>51.8909929303517</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0010060562122009</v>
+        <v>8.908567772309556e-05</v>
       </c>
       <c r="M87" t="n">
         <v>3.86166708328733</v>
@@ -5528,12 +5788,15 @@
       <c r="N87" t="n">
         <v>43347.78812920433</v>
       </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr"/>
+      <c r="O87" t="n">
+        <v>0.0009169705344778045</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5572,13 +5835,13 @@
         <v>3.175</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0005480058125115</v>
+        <v>0.0007068327420114108</v>
       </c>
       <c r="K88" t="n">
         <v>43.4660299348499</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0002442005746436</v>
+        <v>0.0004030275041435108</v>
       </c>
       <c r="M88" t="n">
         <v>24.7838060102016</v>
@@ -5586,12 +5849,15 @@
       <c r="N88" t="n">
         <v>61494.08106245905</v>
       </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr"/>
+      <c r="O88" t="n">
+        <v>-0.0001588269294999108</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5630,13 +5896,13 @@
         <v>3.175</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0011334439581187</v>
+        <v>0.001528765867839196</v>
       </c>
       <c r="K89" t="n">
         <v>61.7681774556576</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.0001632601288575</v>
+        <v>0.0002320617808629959</v>
       </c>
       <c r="M89" t="n">
         <v>9.37621225235857</v>
@@ -5644,12 +5910,15 @@
       <c r="N89" t="n">
         <v>40403.9485411606</v>
       </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr"/>
+      <c r="O89" t="n">
+        <v>-0.0003953219097204959</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5688,13 +5957,13 @@
         <v>3.175</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0008839086860013</v>
+        <v>0.001342796750131465</v>
       </c>
       <c r="K90" t="n">
         <v>56.27423602054</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0004878921451283</v>
+        <v>0.0009467802092584651</v>
       </c>
       <c r="M90" t="n">
         <v>39.677883454939</v>
@@ -5702,12 +5971,15 @@
       <c r="N90" t="n">
         <v>41908.23072444175</v>
       </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr"/>
+      <c r="O90" t="n">
+        <v>-0.000458888064130165</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5746,13 +6018,13 @@
         <v>3.175</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0007724399716412</v>
+        <v>0.0007534672376625887</v>
       </c>
       <c r="K91" t="n">
         <v>40.9703547439299</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0006541662046415</v>
+        <v>0.0006351934706628887</v>
       </c>
       <c r="M91" t="n">
         <v>34.5391286087219</v>
@@ -5760,12 +6032,15 @@
       <c r="N91" t="n">
         <v>54375.76140805859</v>
       </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr"/>
+      <c r="O91" t="n">
+        <v>1.897273397861131e-05</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5804,13 +6079,13 @@
         <v>3.175</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0014238267674319</v>
+        <v>0.001236940839766448</v>
       </c>
       <c r="K92" t="n">
         <v>54.103419580053</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0003151730575199</v>
+        <v>0.0001282871298544483</v>
       </c>
       <c r="M92" t="n">
         <v>5.61124040058898</v>
@@ -5818,12 +6093,15 @@
       <c r="N92" t="n">
         <v>43739.69865063918</v>
       </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr"/>
+      <c r="O92" t="n">
+        <v>0.0001868859276654517</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5862,26 +6140,29 @@
         <v>3.175</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0010451434275552</v>
+        <v>0.002307464252340363</v>
       </c>
       <c r="K93" t="n">
         <v>66.9553327522687</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0001337464523607859</v>
+        <v>0.001396067277145887</v>
       </c>
       <c r="M93" t="n">
         <v>30</v>
       </c>
       <c r="N93" t="n">
-        <v>2.231819536892884</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
+        <v>40548.00899946268</v>
+      </c>
+      <c r="O93" t="n">
+        <v>-0.001262320824785163</v>
       </c>
       <c r="P93" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
         <is>
           <t>LPL @ 30</t>
         </is>
@@ -5924,13 +6205,13 @@
         <v>3.175</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0012755541851029</v>
+        <v>0.000950103311477327</v>
       </c>
       <c r="K94" t="n">
         <v>43.0868710364167</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0003638079961085</v>
+        <v>3.835712248292705e-05</v>
       </c>
       <c r="M94" t="n">
         <v>1.73948282232606</v>
@@ -5938,12 +6219,15 @@
       <c r="N94" t="n">
         <v>45349.66936324052</v>
       </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr"/>
+      <c r="O94" t="n">
+        <v>0.0003254508736255729</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5982,13 +6266,13 @@
         <v>3.175</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0016088378893386</v>
+        <v>0.00131027395965521</v>
       </c>
       <c r="K95" t="n">
         <v>59.7216564670194</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0003188720273542</v>
+        <v>2.030809767081032e-05</v>
       </c>
       <c r="M95" t="n">
         <v>0.9256333178703851</v>
@@ -5996,12 +6280,15 @@
       <c r="N95" t="n">
         <v>45579.5187158682</v>
       </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr"/>
+      <c r="O95" t="n">
+        <v>0.0002985639296833897</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6040,13 +6327,13 @@
         <v>3.175</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.0001349380301042</v>
+        <v>0.0007541473740330103</v>
       </c>
       <c r="K96" t="n">
         <v>54.0681392270688</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.0004296650440706</v>
+        <v>0.0004594203600666103</v>
       </c>
       <c r="M96" t="n">
         <v>32.9378644640673</v>
@@ -6054,12 +6341,15 @@
       <c r="N96" t="n">
         <v>71694.39434354132</v>
       </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr"/>
+      <c r="O96" t="n">
+        <v>-0.0008890854041372103</v>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6098,13 +6388,13 @@
         <v>3.175</v>
       </c>
       <c r="J97" t="n">
-        <v>0.001170348675175</v>
+        <v>0.000948348554995344</v>
       </c>
       <c r="K97" t="n">
         <v>41.4568277525965</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0008781701344557</v>
+        <v>0.000656170014276044</v>
       </c>
       <c r="M97" t="n">
         <v>28.6843134994752</v>
@@ -6112,12 +6402,15 @@
       <c r="N97" t="n">
         <v>43714.75818065652</v>
       </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr"/>
+      <c r="O97" t="n">
+        <v>0.000222000120179656</v>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6156,13 +6449,13 @@
         <v>3.175</v>
       </c>
       <c r="J98" t="n">
-        <v>-0.0016186958523188</v>
+        <v>0.001152142993344857</v>
       </c>
       <c r="K98" t="n">
         <v>55.1712364974773</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.0021129968777836</v>
+        <v>0.0006578419678800566</v>
       </c>
       <c r="M98" t="n">
         <v>31.5012589561555</v>
@@ -6170,12 +6463,15 @@
       <c r="N98" t="n">
         <v>47885.75447332828</v>
       </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr"/>
+      <c r="O98" t="n">
+        <v>-0.002770838845663657</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6214,26 +6510,29 @@
         <v>3.175</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0016879714153149</v>
+        <v>0.002952844901490266</v>
       </c>
       <c r="K99" t="n">
         <v>71.69828730701499</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0001261871832094515</v>
+        <v>0.001391060669384752</v>
       </c>
       <c r="M99" t="n">
         <v>30</v>
       </c>
       <c r="N99" t="n">
-        <v>2.389896696997734</v>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
+        <v>26699.1345218024</v>
+      </c>
+      <c r="O99" t="n">
+        <v>-0.001264873486175366</v>
       </c>
       <c r="P99" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
         <is>
           <t>LPL @ 30</t>
         </is>
@@ -6276,26 +6575,29 @@
         <v>3.175</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0017196871597708</v>
+        <v>0.004018488165852548</v>
       </c>
       <c r="K100" t="n">
         <v>77.33133438958311</v>
       </c>
       <c r="L100" t="n">
-        <v>0.0001021407922984145</v>
+        <v>0.002400941798380107</v>
       </c>
       <c r="M100" t="n">
         <v>30</v>
       </c>
       <c r="N100" t="n">
-        <v>2.577662599564118</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
+        <v>29261.19172926245</v>
+      </c>
+      <c r="O100" t="n">
+        <v>-0.002298801006081748</v>
       </c>
       <c r="P100" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
         <is>
           <t>LPL @ 30</t>
         </is>
@@ -6338,13 +6640,13 @@
         <v>3.175</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0014895556037713</v>
+        <v>0.002103394436134739</v>
       </c>
       <c r="K101" t="n">
         <v>69.8810427182453</v>
       </c>
       <c r="L101" t="n">
-        <v>0.0006035643014249</v>
+        <v>0.001217403133788339</v>
       </c>
       <c r="M101" t="n">
         <v>40.4457665838092</v>
@@ -6352,12 +6654,15 @@
       <c r="N101" t="n">
         <v>33222.98543617944</v>
       </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr"/>
+      <c r="O101" t="n">
+        <v>-0.0006138388323634388</v>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
